--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163C50B-CC28-4B77-99C7-3296395D34EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="15165" windowHeight="10530" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="1410" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="0Shop" sheetId="1" r:id="rId1"/>
-    <sheet name="1OTC" sheetId="3" r:id="rId2"/>
-    <sheet name="2Snacks" sheetId="4" r:id="rId3"/>
-    <sheet name="3Drinks" sheetId="5" r:id="rId4"/>
-    <sheet name="4Ice" sheetId="6" r:id="rId5"/>
-    <sheet name="5Sogo" sheetId="8" r:id="rId6"/>
-    <sheet name="6Award" sheetId="9" r:id="rId7"/>
+    <sheet name="Shop" sheetId="1" r:id="rId1"/>
+    <sheet name="OTC" sheetId="3" r:id="rId2"/>
+    <sheet name="Snacks" sheetId="4" r:id="rId3"/>
+    <sheet name="Drinks" sheetId="5" r:id="rId4"/>
+    <sheet name="Ice" sheetId="6" r:id="rId5"/>
+    <sheet name="Sogo" sheetId="8" r:id="rId6"/>
+    <sheet name="Award" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -47,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text/>
     </comment>
   </commentList>
@@ -90,12 +96,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -117,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -157,12 +163,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -206,7 +212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -224,12 +230,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -251,7 +257,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -273,7 +279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -291,12 +297,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -318,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
   <si>
     <t>TableId</t>
   </si>
@@ -413,9 +419,6 @@
     <t>Purchasing_price</t>
   </si>
   <si>
-    <t>上好佳薯片</t>
-  </si>
-  <si>
     <t>2020_01_20</t>
   </si>
   <si>
@@ -462,19 +465,973 @@
   </si>
   <si>
     <t>现金奖盘</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rinks</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ce</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ogo</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ward</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>饮料</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪糕</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>百货</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>货壁</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>零食</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有的零食信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>里面包含了所有的饮料信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的雪糕信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的百货信息</t>
+  </si>
+  <si>
+    <t>里面包含了所有的奖池信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧肉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>口哨糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸管糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小浣熊干脆面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺仔小馒头</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>咪咪虾条</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西瓜泡泡糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小当家方便面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大白兔奶糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>字母饼干</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪油糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>康康饼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>花生软糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无花果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>润喉糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华丰伊面</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘子糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>大大泡泡糖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_01_21</t>
+  </si>
+  <si>
+    <t>2020_01_22</t>
+  </si>
+  <si>
+    <t>2020_01_23</t>
+  </si>
+  <si>
+    <t>2020_01_24</t>
+  </si>
+  <si>
+    <t>2020_01_25</t>
+  </si>
+  <si>
+    <t>2020_01_26</t>
+  </si>
+  <si>
+    <t>2020_01_27</t>
+  </si>
+  <si>
+    <t>2020_01_28</t>
+  </si>
+  <si>
+    <t>2020_01_29</t>
+  </si>
+  <si>
+    <t>2020_01_30</t>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>椰树牌椰汁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>健力宝</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旭日升</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>老酸奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦乳精</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常可乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐百氏AD钙奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雀巢冰爽茶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲汽水</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高乐高</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>哇哈哈AD钙奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>旺仔牛奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>03</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>04</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>05</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>夏威夷冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪莲</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个小矮人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国大脚板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>小布丁</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>菠萝爽</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲方乙方</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>糯米冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧乐兹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶提子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃头雪糕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>白糖冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米雪糕</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇舌头冰棍</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020_0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>06</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>四驱赛车</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>溜溜球</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>火药枪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪_喷子</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪_手枪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>醋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>酱油</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>油</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020_01_20</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_风铃</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_火影刃具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具奖盘_兵器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,159 +1441,17 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -649,8 +1464,29 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,67 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,128 +1505,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -884,253 +1540,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1140,68 +1557,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1459,28 +1836,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="81" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:27">
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1517,7 +1895,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1531,130 +1909,100 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
+      <c r="B7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1688,7 +2036,7 @@
       <c r="Y1" s="4"/>
       <c r="Z1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1699,7 +2047,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1710,7 +2058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1721,7 +2069,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1732,7 +2080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1744,21 +2092,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
@@ -1768,7 +2115,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1806,40 +2153,328 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
       </c>
       <c r="E2" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
     </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="2">
+        <v>19</v>
+      </c>
+      <c r="E18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:V2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1848,12 +2483,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -1882,15 +2517,15 @@
       <c r="U1" s="3"/>
       <c r="V1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1899,23 +2534,226 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1924,12 +2762,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -1954,15 +2792,15 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
+      <c r="B2" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -1971,23 +2809,243 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="2">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="2">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="2">
+        <v>11</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>15</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="2">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="13.75" style="2" customWidth="1"/>
@@ -1996,12 +3054,12 @@
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>22</v>
@@ -2026,26 +3084,26 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2054,23 +3112,139 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="2">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Z2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="18.625" style="2" customWidth="1"/>
@@ -2080,21 +3254,21 @@
     <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>24</v>
@@ -2120,12 +3294,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -2140,9 +3314,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A163C50B-CC28-4B77-99C7-3296395D34EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF2317-8B16-4355-B160-9A564DBB190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="3885" windowWidth="21600" windowHeight="11385" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Shop" sheetId="1" r:id="rId1"/>
-    <sheet name="OTC" sheetId="3" r:id="rId2"/>
-    <sheet name="Snacks" sheetId="4" r:id="rId3"/>
-    <sheet name="Drinks" sheetId="5" r:id="rId4"/>
-    <sheet name="Ice" sheetId="6" r:id="rId5"/>
-    <sheet name="Sogo" sheetId="8" r:id="rId6"/>
-    <sheet name="Award" sheetId="9" r:id="rId7"/>
+    <sheet name="0Shop" sheetId="1" r:id="rId1"/>
+    <sheet name="1OTC" sheetId="3" r:id="rId2"/>
+    <sheet name="2Snacks" sheetId="4" r:id="rId3"/>
+    <sheet name="3Drinks" sheetId="5" r:id="rId4"/>
+    <sheet name="4Ice" sheetId="6" r:id="rId5"/>
+    <sheet name="5Sogo" sheetId="8" r:id="rId6"/>
+    <sheet name="6Award" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -89,7 +89,18 @@
       </text>
     </comment>
     <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
-      <text/>
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
     </comment>
   </commentList>
 </comments>
@@ -155,6 +166,20 @@
             <charset val="134"/>
           </rPr>
           <t>LOVE:进货价</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{9BF00E25-C06B-4BBB-84FD-469B1DA0553B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
         </r>
       </text>
     </comment>
@@ -225,6 +250,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2E7C4FE2-BA18-4847-B767-70B61CCCF0FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -292,6 +331,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{6AC2E582-8EF2-4D90-83BC-0B50126B7333}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -337,12 +390,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{817AB9A1-FCE0-4E8F-AA67-3662A718A96A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="等线"/>
+            <charset val="134"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>图片名字序列</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
   <si>
     <t>TableId</t>
   </si>
@@ -1424,6 +1491,23 @@
   </si>
   <si>
     <t>玩具奖盘_兵器</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Ima</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ge_id</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1547,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1564,6 +1648,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1992,7 +2079,7 @@
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2102,7 +2189,7 @@
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2218,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2169,6 +2258,9 @@
       <c r="E2" s="2">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F2" s="2">
+        <v>20001</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2186,6 +2278,9 @@
       <c r="E3" s="2">
         <v>3</v>
       </c>
+      <c r="F3" s="2">
+        <v>20002</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2203,6 +2298,9 @@
       <c r="E4" s="2">
         <v>2</v>
       </c>
+      <c r="F4" s="2">
+        <v>20003</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2220,6 +2318,9 @@
       <c r="E5" s="2">
         <v>5</v>
       </c>
+      <c r="F5" s="2">
+        <v>20004</v>
+      </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2237,6 +2338,9 @@
       <c r="E6" s="2">
         <v>4</v>
       </c>
+      <c r="F6" s="2">
+        <v>20005</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2254,6 +2358,9 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
+      <c r="F7" s="2">
+        <v>20006</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2271,6 +2378,9 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="F8" s="2">
+        <v>20007</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2288,6 +2398,9 @@
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
+      <c r="F9" s="2">
+        <v>20008</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2305,6 +2418,9 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
+      <c r="F10" s="2">
+        <v>20009</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2322,6 +2438,9 @@
       <c r="E11" s="2">
         <v>2.5</v>
       </c>
+      <c r="F11" s="2">
+        <v>20010</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2339,6 +2458,9 @@
       <c r="E12" s="2">
         <v>13</v>
       </c>
+      <c r="F12" s="2">
+        <v>20011</v>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2356,6 +2478,9 @@
       <c r="E13" s="2">
         <v>23</v>
       </c>
+      <c r="F13" s="2">
+        <v>20012</v>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2373,6 +2498,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="2">
+        <v>20013</v>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -2390,6 +2518,9 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
+      <c r="F15" s="2">
+        <v>20014</v>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -2407,8 +2538,11 @@
       <c r="E16" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2">
+        <v>20015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2424,8 +2558,11 @@
       <c r="E17" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2">
+        <v>20016</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2441,8 +2578,11 @@
       <c r="E18" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2">
+        <v>20017</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2457,6 +2597,9 @@
       </c>
       <c r="E19" s="2">
         <v>7</v>
+      </c>
+      <c r="F19" s="2">
+        <v>20018</v>
       </c>
     </row>
   </sheetData>
@@ -2468,10 +2611,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2481,6 +2624,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2499,7 +2643,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2533,6 +2679,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>30001</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2550,6 +2699,9 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="2">
+        <v>30002</v>
+      </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2567,6 +2719,9 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
+      <c r="F4" s="2">
+        <v>30003</v>
+      </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2584,6 +2739,9 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
+      <c r="F5" s="2">
+        <v>30004</v>
+      </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2601,6 +2759,9 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
+      <c r="F6" s="2">
+        <v>30005</v>
+      </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2618,6 +2779,9 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
+      <c r="F7" s="2">
+        <v>30006</v>
+      </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2635,6 +2799,9 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
+      <c r="F8" s="2">
+        <v>30007</v>
+      </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2652,6 +2819,9 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
+      <c r="F9" s="2">
+        <v>30008</v>
+      </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2669,6 +2839,9 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="2">
+        <v>30009</v>
+      </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2686,6 +2859,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="2">
+        <v>30010</v>
+      </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2703,6 +2879,9 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
+      <c r="F12" s="2">
+        <v>30011</v>
+      </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2720,6 +2899,9 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
+      <c r="F13" s="2">
+        <v>30012</v>
+      </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -2737,6 +2919,24 @@
       <c r="E14" s="2">
         <v>2</v>
       </c>
+      <c r="F14" s="2">
+        <v>30013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2747,10 +2947,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2760,6 +2960,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -2778,7 +2979,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -2808,6 +3011,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>40001</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -2825,6 +3031,9 @@
       <c r="E3" s="2">
         <v>1.5</v>
       </c>
+      <c r="F3" s="2">
+        <v>40002</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -2842,6 +3051,9 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
+      <c r="F4" s="2">
+        <v>40003</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -2859,6 +3071,9 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="2">
+        <v>40004</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -2876,6 +3091,9 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
+      <c r="F6" s="2">
+        <v>40005</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -2893,6 +3111,9 @@
       <c r="E7" s="2">
         <v>2</v>
       </c>
+      <c r="F7" s="2">
+        <v>40006</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -2910,6 +3131,9 @@
       <c r="E8" s="2">
         <v>2</v>
       </c>
+      <c r="F8" s="2">
+        <v>40007</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -2927,6 +3151,9 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
+      <c r="F9" s="2">
+        <v>40008</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -2944,6 +3171,9 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
+      <c r="F10" s="2">
+        <v>40009</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -2961,6 +3191,9 @@
       <c r="E11" s="2">
         <v>2</v>
       </c>
+      <c r="F11" s="2">
+        <v>40010</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -2978,6 +3211,9 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
+      <c r="F12" s="2">
+        <v>40011</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -2995,6 +3231,9 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
+      <c r="F13" s="2">
+        <v>40012</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
@@ -3012,6 +3251,9 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="2">
+        <v>40013</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -3029,20 +3271,36 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
+      <c r="F15" s="2">
+        <v>40014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3052,6 +3310,7 @@
     <col min="3" max="3" width="21.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="22.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -3070,7 +3329,9 @@
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="3"/>
+      <c r="F1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -3094,6 +3355,9 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="2">
+        <v>50001</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3111,6 +3375,9 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
+      <c r="F3" s="2">
+        <v>50002</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3122,6 +3389,9 @@
       <c r="E4" s="2">
         <v>31</v>
       </c>
+      <c r="F4" s="2">
+        <v>50003</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3133,6 +3403,9 @@
       <c r="E5" s="2">
         <v>23</v>
       </c>
+      <c r="F5" s="2">
+        <v>50004</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
@@ -3144,6 +3417,9 @@
       <c r="E6" s="2">
         <v>22</v>
       </c>
+      <c r="F6" s="2">
+        <v>50005</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -3155,6 +3431,9 @@
       <c r="E7" s="2">
         <v>22</v>
       </c>
+      <c r="F7" s="2">
+        <v>50006</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -3166,6 +3445,9 @@
       <c r="E8" s="2">
         <v>11</v>
       </c>
+      <c r="F8" s="2">
+        <v>50007</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -3177,6 +3459,9 @@
       <c r="E9" s="2">
         <v>3</v>
       </c>
+      <c r="F9" s="2">
+        <v>50008</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -3194,6 +3479,9 @@
       <c r="E10" s="2">
         <v>2</v>
       </c>
+      <c r="F10" s="2">
+        <v>50009</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -3211,6 +3499,9 @@
       <c r="E11" s="2">
         <v>3</v>
       </c>
+      <c r="F11" s="2">
+        <v>50010</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -3228,6 +3519,30 @@
       <c r="E12" s="2">
         <v>4</v>
       </c>
+      <c r="F12" s="2">
+        <v>50011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -3238,10 +3553,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3252,6 +3567,7 @@
     <col min="4" max="4" width="23.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="17.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3273,7 +3589,9 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3"/>
+      <c r="G1" s="10" t="s">
+        <v>136</v>
+      </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -3313,6 +3631,9 @@
       <c r="F2" s="2">
         <v>1</v>
       </c>
+      <c r="G2" s="2">
+        <v>60001</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -3333,6 +3654,9 @@
       <c r="F3" s="2">
         <v>12</v>
       </c>
+      <c r="G3" s="2">
+        <v>60002</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -3353,6 +3677,9 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
+      <c r="G4" s="2">
+        <v>60003</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -3373,6 +3700,51 @@
       <c r="F5" s="2">
         <v>14</v>
       </c>
+      <c r="G5" s="2">
+        <v>60004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>

--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\策划文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AF2317-8B16-4355-B160-9A564DBB190A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E1E5A5-ED12-49A4-95A8-8635914C15DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0Shop" sheetId="1" r:id="rId1"/>
@@ -409,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="138">
   <si>
     <t>TableId</t>
   </si>
@@ -444,13 +444,7 @@
     <t>Refrigerator</t>
   </si>
   <si>
-    <t>冰箱，内含雪糕</t>
-  </si>
-  <si>
     <t>Freezer</t>
-  </si>
-  <si>
-    <t>冰柜，内含饮料及酸奶</t>
   </si>
   <si>
     <t>GoodsShelf</t>
@@ -1508,6 +1502,18 @@
       </rPr>
       <t>ge_id</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContrastTable</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰箱，内含饮料及酸奶</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰柜，内含雪糕</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2001,13 +2007,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -2015,13 +2021,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
@@ -2029,13 +2035,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
@@ -2043,13 +2049,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
@@ -2057,13 +2063,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K7" s="8"/>
     </row>
@@ -2078,8 +2084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2087,6 +2093,7 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="16.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="91.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2099,7 +2106,9 @@
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4"/>
+      <c r="D1" s="3" t="s">
+        <v>135</v>
+      </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -2131,7 +2140,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>136</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2139,10 +2151,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -2150,10 +2165,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2161,10 +2179,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2172,15 +2193,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="2">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2204,22 +2229,22 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2247,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -2267,10 +2292,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -2287,10 +2312,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2307,10 +2332,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -2327,10 +2352,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -2347,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -2367,10 +2392,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -2387,10 +2412,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -2407,10 +2432,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -2427,10 +2452,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -2447,10 +2472,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -2467,10 +2492,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -2487,10 +2512,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -2507,10 +2532,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
@@ -2527,10 +2552,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2">
         <v>17</v>
@@ -2547,10 +2572,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" s="2">
         <v>18</v>
@@ -2567,10 +2592,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D18" s="2">
         <v>19</v>
@@ -2587,10 +2612,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D19" s="2">
         <v>20</v>
@@ -2629,22 +2654,22 @@
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -2668,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -2688,10 +2713,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -2708,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -2728,10 +2753,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -2748,10 +2773,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -2768,10 +2793,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -2788,10 +2813,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -2808,10 +2833,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -2828,10 +2853,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -2848,10 +2873,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -2868,10 +2893,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -2888,10 +2913,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -2908,10 +2933,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -2965,22 +2990,22 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3000,10 +3025,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>3</v>
@@ -3020,10 +3045,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2">
         <v>4</v>
@@ -3040,10 +3065,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2">
         <v>5</v>
@@ -3060,10 +3085,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D5" s="2">
         <v>6</v>
@@ -3080,10 +3105,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2">
         <v>7</v>
@@ -3100,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2">
         <v>8</v>
@@ -3120,10 +3145,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2">
         <v>9</v>
@@ -3140,10 +3165,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2">
         <v>10</v>
@@ -3160,10 +3185,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2">
         <v>11</v>
@@ -3180,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="2">
         <v>12</v>
@@ -3200,10 +3225,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="2">
         <v>13</v>
@@ -3220,10 +3245,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D13" s="2">
         <v>14</v>
@@ -3240,10 +3265,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D14" s="2">
         <v>15</v>
@@ -3260,10 +3285,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D15" s="2">
         <v>16</v>
@@ -3315,22 +3340,22 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="F1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
@@ -3350,7 +3375,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3364,10 +3389,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -3384,7 +3409,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2">
         <v>31</v>
@@ -3398,7 +3423,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E5" s="2">
         <v>23</v>
@@ -3412,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E6" s="2">
         <v>22</v>
@@ -3426,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2">
         <v>22</v>
@@ -3440,7 +3465,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2">
         <v>11</v>
@@ -3454,7 +3479,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>3</v>
@@ -3468,10 +3493,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>13</v>
@@ -3488,10 +3513,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2">
         <v>11</v>
@@ -3508,10 +3533,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="2">
         <v>22</v>
@@ -3555,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -3572,25 +3597,25 @@
   <sheetData>
     <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -3617,7 +3642,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>5</v>
@@ -3640,7 +3665,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2">
         <v>5</v>
@@ -3663,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -3686,7 +3711,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2">
         <v>5</v>

--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -427,7 +427,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-进货时间/h</t>
+进货时间/minite</t>
         </r>
       </text>
     </comment>
@@ -449,7 +449,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-保质期/d</t>
+保质期/minite</t>
         </r>
       </text>
     </comment>
@@ -1546,17 +1546,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1587,6 +1580,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -1596,6 +1597,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1625,32 +1648,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1679,24 +1679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1709,10 +1694,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1725,6 +1711,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1742,19 +1735,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,19 +1759,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,37 +1789,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1838,7 +1819,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1850,79 +1903,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,15 +1955,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1986,31 +1970,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2034,28 +2023,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2065,10 +2058,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2077,16 +2070,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2095,16 +2088,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2113,97 +2106,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2215,22 +2208,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -4405,7 +4398,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -4444,7 +4437,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>42</v>
@@ -4467,7 +4460,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>44</v>
@@ -4490,7 +4483,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>46</v>
@@ -4513,7 +4506,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>48</v>
@@ -4536,7 +4529,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>50</v>
@@ -4559,7 +4552,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>52</v>
@@ -4582,7 +4575,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>54</v>
@@ -4605,7 +4598,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>56</v>
@@ -4628,7 +4621,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>58</v>
@@ -4651,7 +4644,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>60</v>
@@ -4674,7 +4667,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>62</v>
@@ -4697,7 +4690,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>64</v>
@@ -4720,7 +4713,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>66</v>
@@ -4743,7 +4736,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>68</v>
@@ -4766,7 +4759,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>70</v>
@@ -4789,7 +4782,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>72</v>
@@ -4812,7 +4805,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>74</v>
@@ -4835,7 +4828,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>76</v>
@@ -4858,13 +4851,13 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>80</v>
@@ -4887,7 +4880,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="4">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>81</v>
@@ -4910,7 +4903,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>82</v>
@@ -4933,7 +4926,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>83</v>
@@ -4956,7 +4949,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="4">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>84</v>
@@ -4979,7 +4972,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>85</v>
@@ -5002,7 +4995,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>86</v>
@@ -5025,7 +5018,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>87</v>
@@ -5048,7 +5041,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>88</v>
@@ -5071,7 +5064,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>90</v>
@@ -5094,7 +5087,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>92</v>
@@ -5117,7 +5110,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>94</v>
@@ -5140,7 +5133,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>96</v>
@@ -5163,13 +5156,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>100</v>
@@ -5192,7 +5185,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>101</v>
@@ -5215,7 +5208,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>102</v>
@@ -5238,7 +5231,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>103</v>
@@ -5261,7 +5254,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>104</v>
@@ -5284,7 +5277,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>105</v>
@@ -5307,7 +5300,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>106</v>
@@ -5330,7 +5323,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>107</v>
@@ -5353,7 +5346,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>108</v>
@@ -5376,7 +5369,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>109</v>
@@ -5399,7 +5392,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>110</v>
@@ -5422,7 +5415,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>111</v>
@@ -5445,7 +5438,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>112</v>
@@ -5468,7 +5461,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>113</v>
@@ -5491,13 +5484,13 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>117</v>
@@ -5518,7 +5511,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>118</v>
@@ -5541,7 +5534,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>119</v>
@@ -5562,7 +5555,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>120</v>
@@ -5583,7 +5576,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>121</v>
@@ -5604,7 +5597,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>122</v>
@@ -5625,7 +5618,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>123</v>
@@ -5646,7 +5639,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>124</v>
@@ -5667,7 +5660,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>125</v>
@@ -5690,7 +5683,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>126</v>
@@ -5713,7 +5706,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>127</v>

--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\Conversion\AutoChangeJson\datasrc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E92E9-4011-42BB-B808-2CED91D65CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="7"/>
+    <workbookView xWindow="6255" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0Shop" sheetId="1" r:id="rId1"/>
@@ -21,12 +27,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -83,15 +89,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -102,12 +108,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -151,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -164,15 +170,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -183,12 +189,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -245,15 +251,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -264,12 +270,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -326,15 +332,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -345,12 +351,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -372,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -385,15 +391,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -404,12 +410,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -431,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -453,7 +459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -466,29 +472,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
+            <charset val="134"/>
             <scheme val="minor"/>
-            <charset val="0"/>
           </rPr>
           <t>货物种类
 0零食
@@ -503,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
   <si>
     <t>TableId</t>
   </si>
@@ -1537,19 +1543,25 @@
   </si>
   <si>
     <t>TypeId</t>
+  </si>
+  <si>
+    <t>老酸奶</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇摇乐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,143 +1572,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1716,11 +1591,17 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1729,19 +1610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1751,176 +1620,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1954,249 +1655,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2219,68 +1681,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2538,11 +1957,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -2552,14 +1972,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="4" customWidth="1"/>
     <col min="4" max="4" width="81" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:27">
+    <row r="1" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2596,7 +2016,7 @@
       <c r="Z1" s="10"/>
       <c r="AA1" s="10"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2610,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2624,7 +2044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2638,7 +2058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2652,7 +2072,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2666,7 +2086,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2682,22 +2102,21 @@
       <c r="K7" s="11"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16.875" style="4" customWidth="1"/>
@@ -2705,7 +2124,7 @@
     <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2741,7 +2160,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2755,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2769,7 +2188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2783,7 +2202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2797,7 +2216,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2812,22 +2231,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F19"/>
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
@@ -2837,7 +2255,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -2877,7 +2295,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2891,13 +2309,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2" s="4">
         <v>20001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2917,7 +2335,7 @@
         <v>20002</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2937,7 +2355,7 @@
         <v>20003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2957,7 +2375,7 @@
         <v>20004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2977,7 +2395,7 @@
         <v>20005</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2997,7 +2415,7 @@
         <v>20006</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3017,7 +2435,7 @@
         <v>20007</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3037,7 +2455,7 @@
         <v>20008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3057,7 +2475,7 @@
         <v>20009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3077,7 +2495,7 @@
         <v>20010</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3097,7 +2515,7 @@
         <v>20011</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3117,7 +2535,7 @@
         <v>20012</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3137,7 +2555,7 @@
         <v>20013</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3157,7 +2575,7 @@
         <v>20014</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3177,7 +2595,7 @@
         <v>20015</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3197,7 +2615,7 @@
         <v>20016</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3217,7 +2635,7 @@
         <v>20017</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3238,22 +2656,21 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
@@ -3263,7 +2680,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:22">
+    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>78</v>
       </c>
@@ -3299,7 +2716,7 @@
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3319,7 +2736,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3339,7 +2756,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3359,7 +2776,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3379,7 +2796,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3399,7 +2816,7 @@
         <v>30005</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3419,7 +2836,7 @@
         <v>30006</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3439,7 +2856,7 @@
         <v>30007</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3459,7 +2876,7 @@
         <v>30008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3479,7 +2896,7 @@
         <v>30009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3499,7 +2916,7 @@
         <v>30010</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3519,7 +2936,7 @@
         <v>30011</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3539,7 +2956,7 @@
         <v>30012</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3559,38 +2976,37 @@
         <v>30013</v>
       </c>
     </row>
-    <row r="15" spans="6:6">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
@@ -3600,7 +3016,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
@@ -3632,7 +3048,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3652,7 +3068,7 @@
         <v>40001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3672,7 +3088,7 @@
         <v>40002</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3692,7 +3108,7 @@
         <v>40003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3712,7 +3128,7 @@
         <v>40004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3732,7 +3148,7 @@
         <v>40005</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3752,7 +3168,7 @@
         <v>40006</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3772,7 +3188,7 @@
         <v>40007</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3792,7 +3208,7 @@
         <v>40008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3812,7 +3228,7 @@
         <v>40009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3832,7 +3248,7 @@
         <v>40010</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3852,7 +3268,7 @@
         <v>40011</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3872,7 +3288,7 @@
         <v>40012</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3892,7 +3308,7 @@
         <v>40013</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3912,36 +3328,35 @@
         <v>40014</v>
       </c>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
@@ -3951,7 +3366,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>115</v>
       </c>
@@ -3983,7 +3398,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3997,7 +3412,7 @@
         <v>50001</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4017,7 +3432,7 @@
         <v>50002</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4031,7 +3446,7 @@
         <v>50003</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4045,7 +3460,7 @@
         <v>50004</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4059,7 +3474,7 @@
         <v>50005</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4073,7 +3488,7 @@
         <v>50006</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4087,7 +3502,7 @@
         <v>50007</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4101,7 +3516,7 @@
         <v>50008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4121,7 +3536,7 @@
         <v>50009</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4141,7 +3556,7 @@
         <v>50010</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4161,44 +3576,43 @@
         <v>50011</v>
       </c>
     </row>
-    <row r="13" spans="6:6">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="6:6">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="6:6">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="18.625" style="4" customWidth="1"/>
@@ -4209,7 +3623,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:26">
+    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>128</v>
       </c>
@@ -4251,7 +3665,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4274,7 +3688,7 @@
         <v>60001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4297,7 +3711,7 @@
         <v>60002</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4320,7 +3734,7 @@
         <v>60003</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4343,65 +3757,64 @@
         <v>60004</v>
       </c>
     </row>
-    <row r="6" spans="7:7">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="7:7">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="7:7">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="7:7">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="7:7">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="7:7">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="7:7">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="7:7">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="7:7">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="7:7">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="7:7">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="7:7">
+    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="7:7">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="7:7">
+    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -4412,7 +3825,7 @@
     <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>137</v>
       </c>
@@ -4435,7 +3848,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -4449,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F2" s="4">
         <v>20001</v>
@@ -4458,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4481,7 +3894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -4504,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -4527,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -4550,7 +3963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -4573,7 +3986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -4596,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -4619,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -4642,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -4665,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -4688,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -4711,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -4734,7 +4147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -4757,7 +4170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -4780,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4803,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4826,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4849,13 +4262,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4878,7 +4291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4901,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -4924,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -4947,12 +4360,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4">
         <v>4</v>
@@ -4970,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -4993,7 +4406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5016,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5039,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -5062,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -5085,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -5108,7 +4521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -5131,7 +4544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>31</v>
       </c>
@@ -5154,13 +4567,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>32</v>
       </c>
       <c r="C34" s="4"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>33</v>
       </c>
@@ -5183,7 +4596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>34</v>
       </c>
@@ -5206,7 +4619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>35</v>
       </c>
@@ -5229,7 +4642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>36</v>
       </c>
@@ -5252,7 +4665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>37</v>
       </c>
@@ -5275,7 +4688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>38</v>
       </c>
@@ -5298,7 +4711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>39</v>
       </c>
@@ -5321,7 +4734,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>40</v>
       </c>
@@ -5344,7 +4757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>41</v>
       </c>
@@ -5367,7 +4780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>42</v>
       </c>
@@ -5390,12 +4803,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4">
         <v>4</v>
@@ -5413,7 +4826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>44</v>
       </c>
@@ -5436,7 +4849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>45</v>
       </c>
@@ -5459,12 +4872,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>46</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="C48" s="4">
         <v>4</v>
@@ -5482,13 +4895,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>47</v>
       </c>
       <c r="C49" s="4"/>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>48</v>
       </c>
@@ -5509,7 +4922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>49</v>
       </c>
@@ -5532,7 +4945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>50</v>
       </c>
@@ -5553,7 +4966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>51</v>
       </c>
@@ -5574,7 +4987,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>52</v>
       </c>
@@ -5595,7 +5008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>53</v>
       </c>
@@ -5616,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>54</v>
       </c>
@@ -5637,7 +5050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>55</v>
       </c>
@@ -5658,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>56</v>
       </c>
@@ -5681,7 +5094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>57</v>
       </c>
@@ -5704,7 +5117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>58</v>
       </c>
@@ -5728,8 +5141,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dev\My_Shop.git\trunk\Conversion\AutoChangeJson\datasrc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5E92E9-4011-42BB-B808-2CED91D65CD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="15645" windowHeight="8760" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0Shop" sheetId="1" r:id="rId1"/>
@@ -21,18 +15,19 @@
     <sheet name="5Sogo" sheetId="8" r:id="rId6"/>
     <sheet name="6Award" sheetId="9" r:id="rId7"/>
     <sheet name="7Goods" sheetId="10" r:id="rId8"/>
+    <sheet name="8SalesRatio" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -76,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -89,15 +84,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -108,12 +103,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,15 +165,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -189,12 +184,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -238,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -251,15 +246,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -270,12 +265,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -319,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -332,15 +327,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -351,12 +346,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -378,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -391,15 +386,15 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
@@ -410,12 +405,13 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>LOVE</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -459,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,29 +468,29 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000004000000}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>图片名字序列</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000005000000}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color rgb="FF000000"/>
             <rFont val="等线"/>
-            <charset val="134"/>
             <scheme val="minor"/>
+            <charset val="0"/>
           </rPr>
           <t>货物种类
 0零食
@@ -504,12 +500,46 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>解锁销售等级</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>零食,饮料，冷饮，百货</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="165">
   <si>
     <t>TableId</t>
   </si>
@@ -1545,23 +1575,80 @@
     <t>TypeId</t>
   </si>
   <si>
-    <t>老酸奶</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>SalesLevel</t>
   </si>
   <si>
     <t>小学生</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>摇摇乐</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>xse销售额</t>
+  </si>
+  <si>
+    <t>0,0,0,0</t>
+  </si>
+  <si>
+    <t>100,100,100,100</t>
+  </si>
+  <si>
+    <t>200,200,200,200</t>
+  </si>
+  <si>
+    <t>400,400,400,400</t>
+  </si>
+  <si>
+    <t>800,800,800,800</t>
+  </si>
+  <si>
+    <t>800,800,800,801</t>
+  </si>
+  <si>
+    <t>800,800,800,802</t>
+  </si>
+  <si>
+    <t>800,800,800,803</t>
+  </si>
+  <si>
+    <t>800,800,800,804</t>
+  </si>
+  <si>
+    <t>800,800,800,805</t>
+  </si>
+  <si>
+    <t>800,800,800,806</t>
+  </si>
+  <si>
+    <t>800,800,800,807</t>
+  </si>
+  <si>
+    <t>800,800,800,808</t>
+  </si>
+  <si>
+    <t>800,800,800,809</t>
+  </si>
+  <si>
+    <t>800,800,800,810</t>
+  </si>
+  <si>
+    <t>800,800,800,811</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,6 +1661,143 @@
       <color rgb="FF9C5700"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1591,17 +1815,11 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1610,7 +1828,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39991454817346722"/>
+        <fgColor theme="7" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1620,8 +1928,98 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1655,15 +2053,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1681,25 +2327,68 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="32" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="适中" xfId="1" builtinId="28"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1957,12 +2646,11 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -1972,25 +2660,171 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="11.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="81" style="4" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
+    <col min="2" max="3" width="11.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="81" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" s="11" customFormat="1" spans="1:27">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="16.875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="9" customFormat="1" spans="1:26">
+      <c r="A1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="10"/>
@@ -2014,1807 +2848,1668 @@
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
       <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="11"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Z6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="16.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="4">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F19"/>
+      <selection activeCell="A1" sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:26">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="7">
+        <v>1.1</v>
+      </c>
+      <c r="F2" s="7">
         <v>20001</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>20002</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
         <v>20003</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>20004</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
         <v>20005</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>20006</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
         <v>20007</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>0.5</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>20008</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>20009</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>2.5</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>20010</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>13</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>20011</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>23</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>20012</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>20013</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
         <v>20014</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+    <row r="16" spans="1:6">
+      <c r="A16" s="7">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="7">
         <v>17</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="7">
         <v>3</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="7">
         <v>20015</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="7">
         <v>18</v>
       </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
         <v>20016</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:6">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="7">
         <v>19</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="7">
         <v>6</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="7">
         <v>20017</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:6">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="7">
         <v>20</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="7">
         <v>7</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="7">
         <v>20018</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:22">
+      <c r="A1" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>30001</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
         <v>30002</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>30003</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="7">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
         <v>30004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
         <v>30005</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
         <v>30006</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>30007</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>30008</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
         <v>30009</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
         <v>30010</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="7">
         <v>3</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="7">
         <v>30011</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>30012</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-      <c r="F14" s="4">
+      <c r="E14" s="7">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
         <v>30013</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="4"/>
+    <row r="15" spans="6:6">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>40001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
         <v>1.5</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>40002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>0.5</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>40003</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>40004</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="7">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>40005</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="7">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
         <v>40006</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="7">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
         <v>40007</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="7">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>40008</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="7">
         <v>40009</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-      <c r="F11" s="4">
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
         <v>40010</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="7">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
         <v>40011</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+    <row r="13" spans="1:6">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="7">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="7">
         <v>40012</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:6">
+      <c r="A14" s="7">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="7">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="7">
         <v>40013</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6">
+      <c r="A15" s="7">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="7">
         <v>16</v>
       </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
         <v>40014</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="4"/>
+    <row r="16" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="13.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9" style="7"/>
+    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>50001</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
         <v>50002</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>31</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>50003</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>23</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>50004</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+    <row r="6" spans="1:6">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="7">
         <v>22</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="7">
         <v>50005</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+    <row r="7" spans="1:6">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="7">
         <v>22</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>50006</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+    <row r="8" spans="1:6">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="7">
         <v>11</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>50007</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+    <row r="9" spans="1:6">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>50008</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+    <row r="10" spans="1:6">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="7">
         <v>13</v>
       </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-      <c r="F10" s="4">
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
         <v>50009</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+    <row r="11" spans="1:6">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="7">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
         <v>50010</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+    <row r="12" spans="1:6">
+      <c r="A12" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="7">
         <v>22</v>
       </c>
-      <c r="E12" s="4">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4">
+      <c r="E12" s="7">
+        <v>4</v>
+      </c>
+      <c r="F12" s="7">
         <v>50011</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="4"/>
+    <row r="13" spans="6:6">
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="6:6">
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="18.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="4" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="18.625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="7" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:26">
+      <c r="A1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="7">
         <v>10</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="7">
         <v>15</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="7">
         <v>1</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="7">
         <v>60001</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="7">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="7">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="7">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="7">
         <v>60002</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+    <row r="4" spans="1:7">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>15</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>13</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="7">
         <v>60003</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="7">
         <v>5</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="7">
         <v>10</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="7">
         <v>15</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>14</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="7">
         <v>60004</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="4"/>
+    <row r="6" spans="7:7">
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="7:7">
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="7:7">
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="7:7">
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="7:7">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="7:7">
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="7:7">
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="7:7">
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="7:7">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="7:7">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="7:7">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.875" customWidth="1"/>
     <col min="2" max="2" width="14.375" customWidth="1"/>
@@ -3822,1328 +4517,1661 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="7" max="7" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>137</v>
       </c>
+      <c r="B1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1.1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>20001</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7">
+        <v>20002</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="7">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="7">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20003</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="7">
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20004</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="7">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="7">
+        <v>4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20005</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20006</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="7">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="7">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7">
+        <v>9</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20007</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <v>10</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20008</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="7">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20009</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="7">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>12</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>20010</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="7">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="7">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>20011</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="7">
+        <v>11</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="7">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14</v>
+      </c>
+      <c r="E13" s="7">
+        <v>23</v>
+      </c>
+      <c r="F13" s="7">
+        <v>20012</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="7">
+        <v>12</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="7">
+        <v>4</v>
+      </c>
+      <c r="D14" s="7">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20013</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="7">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="7">
+        <v>4</v>
+      </c>
+      <c r="D15" s="7">
+        <v>16</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>20014</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7">
+        <v>14</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4</v>
+      </c>
+      <c r="D16" s="7">
+        <v>17</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>20015</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="7">
+        <v>15</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="7">
+        <v>4</v>
+      </c>
+      <c r="D17" s="7">
+        <v>18</v>
+      </c>
+      <c r="E17" s="7">
+        <v>4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>20016</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="7">
+        <v>16</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4</v>
+      </c>
+      <c r="D18" s="7">
+        <v>19</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7">
+        <v>20017</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="7">
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>20</v>
+      </c>
+      <c r="E19" s="7">
+        <v>7</v>
+      </c>
+      <c r="F19" s="7">
+        <v>20018</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="7">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="7">
+        <v>4</v>
+      </c>
+      <c r="D21" s="7">
+        <v>3</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7">
+        <v>30001</v>
+      </c>
+      <c r="G21" s="4">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="7">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="D22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>30002</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>3</v>
+      </c>
+      <c r="F23" s="7">
+        <v>30003</v>
+      </c>
+      <c r="G23" s="4">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="7">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4</v>
+      </c>
+      <c r="D24" s="7">
+        <v>6</v>
+      </c>
+      <c r="E24" s="7">
+        <v>4</v>
+      </c>
+      <c r="F24" s="7">
+        <v>30004</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="7">
+        <v>23</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="7">
+        <v>4</v>
+      </c>
+      <c r="D25" s="7">
+        <v>7</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>30005</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="7">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>8</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>30006</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="7">
+        <v>25</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="7">
+        <v>4</v>
+      </c>
+      <c r="D27" s="7">
+        <v>9</v>
+      </c>
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="7">
+        <v>30007</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="7">
+        <v>26</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7">
+        <v>10</v>
+      </c>
+      <c r="E28" s="7">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7">
+        <v>30008</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="7">
+        <v>27</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="7">
+        <v>4</v>
+      </c>
+      <c r="D29" s="7">
+        <v>11</v>
+      </c>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7">
+        <v>30009</v>
+      </c>
+      <c r="G29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="7">
+        <v>28</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="7">
+        <v>4</v>
+      </c>
+      <c r="D30" s="7">
+        <v>12</v>
+      </c>
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7">
+        <v>30010</v>
+      </c>
+      <c r="G30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="7">
+        <v>29</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>13</v>
+      </c>
+      <c r="E31" s="7">
+        <v>3</v>
+      </c>
+      <c r="F31" s="7">
+        <v>30011</v>
+      </c>
+      <c r="G31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="7">
+        <v>30</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="D32" s="7">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7">
+        <v>30012</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="7">
+        <v>31</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7">
+        <v>4</v>
+      </c>
+      <c r="D33" s="7">
+        <v>15</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="7">
+        <v>30013</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="7">
+        <v>33</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4</v>
+      </c>
+      <c r="D35" s="7">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1</v>
+      </c>
+      <c r="F35" s="7">
+        <v>40001</v>
+      </c>
+      <c r="G35" s="4">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="7">
+        <v>34</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="D36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="F36" s="7">
+        <v>40002</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="7">
+        <v>35</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="D37" s="7">
+        <v>5</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F37" s="7">
+        <v>40003</v>
+      </c>
+      <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="7">
+        <v>36</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="7">
+        <v>4</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="7">
+        <v>40004</v>
+      </c>
+      <c r="G38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="7">
+        <v>37</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="7">
+        <v>4</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="7">
+        <v>40005</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="7">
+        <v>38</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" s="7">
+        <v>4</v>
+      </c>
+      <c r="D40" s="7">
+        <v>8</v>
+      </c>
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="7">
+        <v>40006</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="7">
+        <v>39</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="7">
+        <v>4</v>
+      </c>
+      <c r="D41" s="7">
+        <v>9</v>
+      </c>
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="7">
+        <v>40007</v>
+      </c>
+      <c r="G41" s="4">
+        <v>2</v>
+      </c>
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="7">
+        <v>40</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="7">
+        <v>4</v>
+      </c>
+      <c r="D42" s="7">
+        <v>10</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1</v>
+      </c>
+      <c r="F42" s="7">
+        <v>40008</v>
+      </c>
+      <c r="G42" s="4">
+        <v>2</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="7">
+        <v>41</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="7">
+        <v>4</v>
+      </c>
+      <c r="D43" s="7">
+        <v>11</v>
+      </c>
+      <c r="E43" s="7">
+        <v>1</v>
+      </c>
+      <c r="F43" s="7">
+        <v>40009</v>
+      </c>
+      <c r="G43" s="4">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="7">
+        <v>42</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="7">
+        <v>4</v>
+      </c>
+      <c r="D44" s="7">
+        <v>12</v>
+      </c>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7">
+        <v>40010</v>
+      </c>
+      <c r="G44" s="4">
+        <v>2</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="7">
+        <v>43</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C45" s="7">
+        <v>4</v>
+      </c>
+      <c r="D45" s="7">
+        <v>13</v>
+      </c>
+      <c r="E45" s="7">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7">
+        <v>40011</v>
+      </c>
+      <c r="G45" s="4">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="7">
+        <v>44</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="7">
+        <v>4</v>
+      </c>
+      <c r="D46" s="7">
+        <v>14</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>40012</v>
+      </c>
+      <c r="G46" s="4">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="7">
+        <v>45</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="7">
+        <v>4</v>
+      </c>
+      <c r="D47" s="7">
+        <v>15</v>
+      </c>
+      <c r="E47" s="7">
+        <v>1</v>
+      </c>
+      <c r="F47" s="7">
+        <v>40013</v>
+      </c>
+      <c r="G47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="7">
+        <v>46</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" s="7">
+        <v>4</v>
+      </c>
+      <c r="D48" s="7">
+        <v>16</v>
+      </c>
+      <c r="E48" s="7">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7">
+        <v>40014</v>
+      </c>
+      <c r="G48" s="4">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7">
+        <v>47</v>
+      </c>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="7">
+        <v>48</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="7">
+        <v>4</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>50001</v>
+      </c>
+      <c r="G50" s="4">
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="7">
+        <v>49</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C51" s="7">
+        <v>4</v>
+      </c>
+      <c r="D51" s="7">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2</v>
+      </c>
+      <c r="F51" s="7">
+        <v>50002</v>
+      </c>
+      <c r="G51" s="4">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="7">
+        <v>50</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="7">
+        <v>4</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7">
+        <v>31</v>
+      </c>
+      <c r="F52" s="7">
+        <v>50003</v>
+      </c>
+      <c r="G52" s="4">
+        <v>3</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="7">
+        <v>51</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="7">
+        <v>4</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7">
+        <v>23</v>
+      </c>
+      <c r="F53" s="7">
+        <v>50004</v>
+      </c>
+      <c r="G53" s="4">
+        <v>3</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="7">
+        <v>52</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="7">
+        <v>4</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7">
+        <v>22</v>
+      </c>
+      <c r="F54" s="7">
+        <v>50005</v>
+      </c>
+      <c r="G54" s="4">
+        <v>3</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="7">
+        <v>53</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="7">
+        <v>4</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7">
+        <v>22</v>
+      </c>
+      <c r="F55" s="7">
+        <v>50006</v>
+      </c>
+      <c r="G55" s="4">
+        <v>3</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="7">
+        <v>54</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="7">
+        <v>4</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7">
+        <v>11</v>
+      </c>
+      <c r="F56" s="7">
+        <v>50007</v>
+      </c>
+      <c r="G56" s="4">
+        <v>3</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="7">
+        <v>55</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="7">
+        <v>4</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7">
+        <v>3</v>
+      </c>
+      <c r="F57" s="7">
+        <v>50008</v>
+      </c>
+      <c r="G57" s="4">
+        <v>3</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="7">
+        <v>56</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="7">
+        <v>4</v>
+      </c>
+      <c r="D58" s="7">
+        <v>13</v>
+      </c>
+      <c r="E58" s="7">
+        <v>2</v>
+      </c>
+      <c r="F58" s="7">
+        <v>50009</v>
+      </c>
+      <c r="G58" s="4">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="7">
+        <v>57</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="7">
+        <v>4</v>
+      </c>
+      <c r="D59" s="7">
+        <v>11</v>
+      </c>
+      <c r="E59" s="7">
+        <v>3</v>
+      </c>
+      <c r="F59" s="7">
+        <v>50010</v>
+      </c>
+      <c r="G59" s="4">
+        <v>3</v>
+      </c>
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="7">
+        <v>58</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="7">
+        <v>4</v>
+      </c>
+      <c r="D60" s="7">
+        <v>22</v>
+      </c>
+      <c r="E60" s="7">
+        <v>4</v>
+      </c>
+      <c r="F60" s="7">
+        <v>50011</v>
+      </c>
+      <c r="G60" s="4">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="27.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="E2" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F2" s="4">
-        <v>20001</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4">
-        <v>4</v>
-      </c>
-      <c r="D3" s="4">
-        <v>4</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20002</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B5" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>20003</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="4">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B7" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
-        <v>5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20004</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="4">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B8" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20005</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B9" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20006</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20007</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="4">
-        <v>4</v>
-      </c>
-      <c r="D9" s="4">
+      <c r="B11" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20008</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="4">
-        <v>4</v>
-      </c>
-      <c r="D10" s="4">
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20009</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="4">
-        <v>4</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B13" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="E11" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20010</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="4">
-        <v>4</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="E12" s="4">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20011</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4">
-        <v>4</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B15" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="E13" s="4">
-        <v>23</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20012</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4</v>
-      </c>
-      <c r="D14" s="4">
+      <c r="B16" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20013</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="4">
-        <v>4</v>
-      </c>
-      <c r="D15" s="4">
-        <v>16</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20014</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="4">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>17</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-      <c r="F16" s="4">
-        <v>20015</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="4">
-        <v>4</v>
-      </c>
-      <c r="D17" s="4">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4">
-        <v>4</v>
-      </c>
-      <c r="F17" s="4">
-        <v>20016</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="4">
-        <v>4</v>
-      </c>
-      <c r="D18" s="4">
-        <v>19</v>
-      </c>
-      <c r="E18" s="4">
-        <v>6</v>
-      </c>
-      <c r="F18" s="4">
-        <v>20017</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4</v>
-      </c>
-      <c r="D19" s="4">
-        <v>20</v>
-      </c>
-      <c r="E19" s="4">
-        <v>7</v>
-      </c>
-      <c r="F19" s="4">
-        <v>20018</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>18</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="4">
-        <v>4</v>
-      </c>
-      <c r="D21" s="4">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1</v>
-      </c>
-      <c r="F21" s="4">
-        <v>30001</v>
-      </c>
-      <c r="G21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="4">
-        <v>4</v>
-      </c>
-      <c r="D22" s="4">
-        <v>4</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>30002</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>21</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="4">
-        <v>4</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4">
-        <v>3</v>
-      </c>
-      <c r="F23" s="4">
-        <v>30003</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>22</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="4">
-        <v>4</v>
-      </c>
-      <c r="D24" s="4">
-        <v>6</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4">
-        <v>30004</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>23</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C25" s="4">
-        <v>4</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4">
-        <v>2</v>
-      </c>
-      <c r="F25" s="4">
-        <v>30005</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>24</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="4">
-        <v>4</v>
-      </c>
-      <c r="D26" s="4">
-        <v>8</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4">
-        <v>30006</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" s="4">
-        <v>4</v>
-      </c>
-      <c r="D27" s="4">
-        <v>9</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-      <c r="F27" s="4">
-        <v>30007</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="4">
-        <v>4</v>
-      </c>
-      <c r="D28" s="4">
-        <v>10</v>
-      </c>
-      <c r="E28" s="4">
-        <v>3</v>
-      </c>
-      <c r="F28" s="4">
-        <v>30008</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>27</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="4">
-        <v>4</v>
-      </c>
-      <c r="D29" s="4">
-        <v>11</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>30009</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <v>28</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="4">
-        <v>4</v>
-      </c>
-      <c r="D30" s="4">
-        <v>12</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>30010</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>29</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="4">
-        <v>4</v>
-      </c>
-      <c r="D31" s="4">
-        <v>13</v>
-      </c>
-      <c r="E31" s="4">
-        <v>3</v>
-      </c>
-      <c r="F31" s="4">
-        <v>30011</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>30</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="4">
-        <v>4</v>
-      </c>
-      <c r="D32" s="4">
-        <v>14</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3</v>
-      </c>
-      <c r="F32" s="4">
-        <v>30012</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>31</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="4">
-        <v>4</v>
-      </c>
-      <c r="D33" s="4">
-        <v>15</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>30013</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>32</v>
-      </c>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>33</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="4">
-        <v>4</v>
-      </c>
-      <c r="D35" s="4">
-        <v>3</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="4">
-        <v>40001</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>34</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C36" s="4">
-        <v>4</v>
-      </c>
-      <c r="D36" s="4">
-        <v>4</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="F36" s="4">
-        <v>40002</v>
-      </c>
-      <c r="G36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>35</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" s="4">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>5</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="F37" s="4">
-        <v>40003</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>36</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C38" s="4">
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>6</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="4">
-        <v>40004</v>
-      </c>
-      <c r="G38" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>37</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="4">
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>7</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="4">
-        <v>40005</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>38</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="4">
-        <v>4</v>
-      </c>
-      <c r="D40" s="4">
-        <v>8</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="F40" s="4">
-        <v>40006</v>
-      </c>
-      <c r="G40" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>39</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="4">
-        <v>4</v>
-      </c>
-      <c r="D41" s="4">
-        <v>9</v>
-      </c>
-      <c r="E41" s="4">
-        <v>2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>40007</v>
-      </c>
-      <c r="G41" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <v>40</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="4">
-        <v>4</v>
-      </c>
-      <c r="D42" s="4">
-        <v>10</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4">
-        <v>40008</v>
-      </c>
-      <c r="G42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>41</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="4">
-        <v>4</v>
-      </c>
-      <c r="D43" s="4">
-        <v>11</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="4">
-        <v>40009</v>
-      </c>
-      <c r="G43" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>42</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="4">
-        <v>4</v>
-      </c>
-      <c r="D44" s="4">
-        <v>12</v>
-      </c>
-      <c r="E44" s="4">
-        <v>2</v>
-      </c>
-      <c r="F44" s="4">
-        <v>40010</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>43</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C45" s="4">
-        <v>4</v>
-      </c>
-      <c r="D45" s="4">
-        <v>13</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-      <c r="F45" s="4">
-        <v>40011</v>
-      </c>
-      <c r="G45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4</v>
-      </c>
-      <c r="D46" s="4">
-        <v>14</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>40012</v>
-      </c>
-      <c r="G46" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>45</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4</v>
-      </c>
-      <c r="D47" s="4">
-        <v>15</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="4">
-        <v>40013</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>46</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C48" s="4">
-        <v>4</v>
-      </c>
-      <c r="D48" s="4">
-        <v>16</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-      <c r="F48" s="4">
-        <v>40014</v>
-      </c>
-      <c r="G48" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>47</v>
-      </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="4">
-        <v>4</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="4">
-        <v>50001</v>
-      </c>
-      <c r="G50" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="4">
-        <v>4</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-      <c r="F51" s="4">
-        <v>50002</v>
-      </c>
-      <c r="G51" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>50</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="4">
-        <v>4</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4">
-        <v>31</v>
-      </c>
-      <c r="F52" s="4">
-        <v>50003</v>
-      </c>
-      <c r="G52" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>51</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C53" s="4">
-        <v>4</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4">
-        <v>23</v>
-      </c>
-      <c r="F53" s="4">
-        <v>50004</v>
-      </c>
-      <c r="G53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <v>52</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="4">
-        <v>4</v>
-      </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4">
-        <v>22</v>
-      </c>
-      <c r="F54" s="4">
-        <v>50005</v>
-      </c>
-      <c r="G54" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>53</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C55" s="4">
-        <v>4</v>
-      </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4">
-        <v>22</v>
-      </c>
-      <c r="F55" s="4">
-        <v>50006</v>
-      </c>
-      <c r="G55" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>54</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="4">
-        <v>4</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4">
-        <v>11</v>
-      </c>
-      <c r="F56" s="4">
-        <v>50007</v>
-      </c>
-      <c r="G56" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>55</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C57" s="4">
-        <v>4</v>
-      </c>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4">
-        <v>3</v>
-      </c>
-      <c r="F57" s="4">
-        <v>50008</v>
-      </c>
-      <c r="G57" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>56</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="4">
-        <v>4</v>
-      </c>
-      <c r="D58" s="4">
-        <v>13</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-      <c r="F58" s="4">
-        <v>50009</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>57</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C59" s="4">
-        <v>4</v>
-      </c>
-      <c r="D59" s="4">
-        <v>11</v>
-      </c>
-      <c r="E59" s="4">
-        <v>3</v>
-      </c>
-      <c r="F59" s="4">
-        <v>50010</v>
-      </c>
-      <c r="G59" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>58</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="4">
-        <v>4</v>
-      </c>
-      <c r="D60" s="4">
-        <v>22</v>
-      </c>
-      <c r="E60" s="4">
-        <v>4</v>
-      </c>
-      <c r="F60" s="4">
-        <v>50011</v>
-      </c>
-      <c r="G60" s="1">
-        <v>3</v>
+      <c r="B17" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B17" numberStoredAsText="1"/>
+  </ignoredErrors>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
+++ b/Conversion/AutoChangeJson/datasrc/MyShop.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15645" windowHeight="8760" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="15645" windowHeight="8760" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0Shop" sheetId="1" r:id="rId1"/>
@@ -1643,10 +1643,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1665,7 +1665,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1673,37 +1681,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1713,22 +1706,6 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1755,31 +1732,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1794,8 +1749,53 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1834,37 +1834,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1882,7 +1852,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,19 +1888,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,97 +2008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2054,60 +2054,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2134,6 +2080,56 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -2141,13 +2137,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2157,10 +2157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2169,137 +2169,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2308,9 +2308,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2662,132 +2659,132 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="7.625" style="7" customWidth="1"/>
-    <col min="2" max="3" width="11.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="81" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="81" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="11" customFormat="1" spans="1:27">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="10" customFormat="1" spans="1:27">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="14"/>
+      <c r="K7" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2807,115 +2804,115 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="16.875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="54.125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="22.125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="16.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:26">
+      <c r="A1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>6</v>
       </c>
     </row>
@@ -2937,411 +2934,411 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="22.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:26">
+      <c r="A1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1.1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>20001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>20002</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>20003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>5</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>20004</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>4</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>20005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
         <v>20006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
         <v>20007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>0.5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>20008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>20009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>2.5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>20010</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>13</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>20011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>23</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>20012</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>20013</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>16</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
         <v>20014</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>17</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>20015</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>18</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>20016</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>19</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>6</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>20017</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>20</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>7</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>20018</v>
       </c>
     </row>
@@ -3363,324 +3360,324 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="22.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:22">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:22">
+      <c r="A1" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>30001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
         <v>30002</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>30003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>30004</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
-        <v>2</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
         <v>30005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
         <v>30006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>3</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>30007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>30008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
         <v>30009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>30010</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>30011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>3</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>30012</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
         <v>30013</v>
       </c>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3700,337 +3697,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="22.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>40001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>6</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>1.5</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>40002</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>40003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
         <v>40004</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
         <v>40005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7">
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
         <v>40006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
         <v>40007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>10</v>
       </c>
-      <c r="E9" s="7">
-        <v>1</v>
-      </c>
-      <c r="F9" s="7">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>40008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>11</v>
       </c>
-      <c r="E10" s="7">
-        <v>1</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
         <v>40009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7">
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
         <v>40010</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
-        <v>2</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
         <v>40011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
         <v>40012</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>40013</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>16</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
         <v>40014</v>
       </c>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4051,244 +4048,244 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="13.75" style="7" customWidth="1"/>
-    <col min="3" max="3" width="21.875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9" style="7"/>
-    <col min="5" max="5" width="22.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="13.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="22.25" style="6" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
         <v>50001</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>2</v>
-      </c>
-      <c r="F3" s="7">
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
         <v>50002</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>31</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>50003</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>23</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>50004</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>22</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <v>50005</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>22</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>50006</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="7">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>11</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>50007</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="7">
+      <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>3</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>50008</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="7">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>13</v>
       </c>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7">
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
         <v>50009</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7">
+      <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>11</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>3</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>50010</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>22</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>4</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>50011</v>
       </c>
     </row>
     <row r="13" spans="6:6">
-      <c r="F13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="6:6">
-      <c r="F14" s="7"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="7"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="7"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="7"/>
+      <c r="F19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4308,190 +4305,190 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="18.625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="18.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18.25" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="17.375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="6" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="9" customFormat="1" spans="1:26">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="8" customFormat="1" spans="1:26">
+      <c r="A1" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>5</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>10</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>15</v>
       </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7">
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
         <v>60001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>15</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>60002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>5</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>15</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>13</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>60003</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>5</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>10</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>15</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>14</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>60004</v>
       </c>
     </row>
     <row r="6" spans="7:7">
-      <c r="G6" s="7"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="7:7">
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="7:7">
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="7:7">
-      <c r="G9" s="7"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="7:7">
-      <c r="G10" s="7"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="7:7">
-      <c r="G11" s="7"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="7:7">
-      <c r="G12" s="7"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="7:7">
-      <c r="G13" s="7"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="7:7">
-      <c r="G14" s="7"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="7:7">
-      <c r="G15" s="7"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="7:7">
-      <c r="G16" s="7"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="7:7">
-      <c r="G17" s="7"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="7:7">
-      <c r="G18" s="7"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="7:7">
-      <c r="G19" s="7"/>
+      <c r="G19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4505,8 +4502,8 @@
   <sheetPr/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -4517,29 +4514,29 @@
     <col min="4" max="4" width="15.125" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
       <c r="H1" t="s">
@@ -4547,25 +4544,25 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7">
-        <v>4</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1.1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>20001</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
       <c r="H2">
@@ -4573,25 +4570,25 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="D3" s="7">
-        <v>4</v>
-      </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>3</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>20002</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
       <c r="H3">
@@ -4599,25 +4596,25 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="7">
-        <v>2</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
         <v>5</v>
       </c>
-      <c r="E4" s="7">
-        <v>2</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
         <v>20003</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
       <c r="H4">
@@ -4625,181 +4622,181 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>6</v>
+      </c>
+      <c r="E5" s="6">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20004</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="D5" s="7">
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20005</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20006</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>20004</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="B8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>9</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20007</v>
+      </c>
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="7">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="7">
-        <v>4</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>20005</v>
-      </c>
-      <c r="G6" s="7">
+      <c r="B9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20008</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="7">
-        <v>4</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>20006</v>
-      </c>
-      <c r="G7" s="7">
+      <c r="B10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20009</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="7">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="7">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="7">
-        <v>20007</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="7">
-        <v>7</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>10</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="7">
-        <v>20008</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="7">
-        <v>8</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="7">
-        <v>4</v>
-      </c>
-      <c r="D10" s="7">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>20009</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="7">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="7">
-        <v>4</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>2.5</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>20010</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>0</v>
       </c>
       <c r="H11">
@@ -4807,25 +4804,25 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="7">
+      <c r="A12" s="6">
         <v>10</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
         <v>13</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>13</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>20011</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0</v>
       </c>
       <c r="H12">
@@ -4833,25 +4830,25 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="7">
-        <v>4</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
         <v>14</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>23</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>20012</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>0</v>
       </c>
       <c r="H13">
@@ -4859,25 +4856,25 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="7">
+      <c r="A14" s="6">
         <v>12</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="7">
-        <v>4</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
         <v>15</v>
       </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
         <v>20013</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14">
@@ -4885,25 +4882,25 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="7">
+      <c r="A15" s="6">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="7">
-        <v>4</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
         <v>16</v>
       </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
         <v>20014</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>0</v>
       </c>
       <c r="H15">
@@ -4911,25 +4908,25 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7">
+      <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="7">
-        <v>4</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
         <v>17</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>3</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>20015</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>0</v>
       </c>
       <c r="H16">
@@ -4937,25 +4934,25 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="7">
+      <c r="A17" s="6">
         <v>15</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>18</v>
+      </c>
+      <c r="E17" s="6">
         <v>4</v>
       </c>
-      <c r="D17" s="7">
-        <v>18</v>
-      </c>
-      <c r="E17" s="7">
-        <v>4</v>
-      </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>20016</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>0</v>
       </c>
       <c r="H17">
@@ -4963,25 +4960,25 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="7">
+      <c r="A18" s="6">
         <v>16</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="7">
-        <v>4</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
         <v>19</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>6</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>20017</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>0</v>
       </c>
       <c r="H18">
@@ -4989,25 +4986,25 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="7">
+      <c r="A19" s="6">
         <v>17</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
         <v>20</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>7</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>20018</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>0</v>
       </c>
       <c r="H19">
@@ -5015,31 +5012,31 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="7">
+      <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="7">
+      <c r="A21" s="6">
         <v>19</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C21" s="7">
-        <v>4</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
         <v>3</v>
       </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
         <v>30001</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="1">
         <v>1</v>
       </c>
       <c r="H21">
@@ -5047,25 +5044,25 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="7">
+      <c r="A22" s="6">
         <v>20</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
-        <v>4</v>
-      </c>
-      <c r="E22" s="7">
-        <v>2</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
         <v>30002</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="1">
         <v>1</v>
       </c>
       <c r="H22">
@@ -5073,25 +5070,25 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="6">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C23" s="7">
-        <v>4</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
         <v>5</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>3</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="6">
         <v>30003</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="1">
         <v>1</v>
       </c>
       <c r="H23">
@@ -5099,25 +5096,25 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="7">
+      <c r="A24" s="6">
         <v>22</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>6</v>
+      </c>
+      <c r="E24" s="6">
         <v>4</v>
       </c>
-      <c r="D24" s="7">
-        <v>6</v>
-      </c>
-      <c r="E24" s="7">
-        <v>4</v>
-      </c>
-      <c r="F24" s="7">
+      <c r="F24" s="6">
         <v>30004</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="1">
         <v>1</v>
       </c>
       <c r="H24">
@@ -5125,25 +5122,25 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="7">
+      <c r="A25" s="6">
         <v>23</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C25" s="7">
-        <v>4</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
         <v>7</v>
       </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
         <v>30005</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="1">
         <v>1</v>
       </c>
       <c r="H25">
@@ -5151,25 +5148,25 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="7">
+      <c r="A26" s="6">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7">
-        <v>4</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
         <v>8</v>
       </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
         <v>30006</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="1">
         <v>1</v>
       </c>
       <c r="H26">
@@ -5177,25 +5174,25 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="7">
+      <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="7">
-        <v>4</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
         <v>9</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>3</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="6">
         <v>30007</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="1">
         <v>1</v>
       </c>
       <c r="H27">
@@ -5203,25 +5200,25 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="7">
+      <c r="A28" s="6">
         <v>26</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="7">
-        <v>4</v>
-      </c>
-      <c r="D28" s="7">
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
         <v>10</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>3</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="6">
         <v>30008</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="1">
         <v>1</v>
       </c>
       <c r="H28">
@@ -5229,25 +5226,25 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="6">
         <v>27</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C29" s="7">
-        <v>4</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
         <v>11</v>
       </c>
-      <c r="E29" s="7">
-        <v>2</v>
-      </c>
-      <c r="F29" s="7">
+      <c r="E29" s="6">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6">
         <v>30009</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="1">
         <v>1</v>
       </c>
       <c r="H29">
@@ -5255,25 +5252,25 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7">
+      <c r="A30" s="6">
         <v>28</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="7">
-        <v>4</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
         <v>12</v>
       </c>
-      <c r="E30" s="7">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7">
+      <c r="E30" s="6">
+        <v>2</v>
+      </c>
+      <c r="F30" s="6">
         <v>30010</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="1">
         <v>1</v>
       </c>
       <c r="H30">
@@ -5281,25 +5278,25 @@
       </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7">
+      <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="7">
-        <v>4</v>
-      </c>
-      <c r="D31" s="7">
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
         <v>13</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>3</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="6">
         <v>30011</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="1">
         <v>1</v>
       </c>
       <c r="H31">
@@ -5307,25 +5304,25 @@
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="C32" s="6">
+        <v>1</v>
+      </c>
+      <c r="D32" s="6">
         <v>14</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>3</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>30012</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="1">
         <v>1</v>
       </c>
       <c r="H32">
@@ -5333,25 +5330,25 @@
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="7">
+      <c r="A33" s="6">
         <v>31</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="7">
-        <v>4</v>
-      </c>
-      <c r="D33" s="7">
+      <c r="C33" s="6">
+        <v>1</v>
+      </c>
+      <c r="D33" s="6">
         <v>15</v>
       </c>
-      <c r="E33" s="7">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7">
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
         <v>30013</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="1">
         <v>1</v>
       </c>
       <c r="H33">
@@ -5359,31 +5356,31 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="7">
+      <c r="A34" s="6">
         <v>32</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7">
+      <c r="A35" s="6">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="7">
-        <v>4</v>
-      </c>
-      <c r="D35" s="7">
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
         <v>3</v>
       </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>40001</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="1">
         <v>2</v>
       </c>
       <c r="H35">
@@ -5391,25 +5388,25 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="7">
+      <c r="A36" s="6">
         <v>34</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
+        <v>1</v>
+      </c>
+      <c r="D36" s="6">
         <v>4</v>
       </c>
-      <c r="D36" s="7">
-        <v>4</v>
-      </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>1.5</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="6">
         <v>40002</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="1">
         <v>2</v>
       </c>
       <c r="H36">
@@ -5417,25 +5414,25 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="7">
+      <c r="A37" s="6">
         <v>35</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="7">
-        <v>4</v>
-      </c>
-      <c r="D37" s="7">
+      <c r="C37" s="6">
+        <v>1</v>
+      </c>
+      <c r="D37" s="6">
         <v>5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>0.5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="6">
         <v>40003</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="1">
         <v>2</v>
       </c>
       <c r="H37">
@@ -5443,25 +5440,25 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="6">
         <v>36</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="7">
-        <v>4</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
         <v>6</v>
       </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
         <v>40004</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="1">
         <v>2</v>
       </c>
       <c r="H38">
@@ -5469,25 +5466,25 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="7">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7">
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
         <v>7</v>
       </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
         <v>40005</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="1">
         <v>2</v>
       </c>
       <c r="H39">
@@ -5495,25 +5492,25 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="7">
+      <c r="A40" s="6">
         <v>38</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="7">
-        <v>4</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="C40" s="6">
+        <v>1</v>
+      </c>
+      <c r="D40" s="6">
         <v>8</v>
       </c>
-      <c r="E40" s="7">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7">
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
         <v>40006</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="1">
         <v>2</v>
       </c>
       <c r="H40">
@@ -5521,25 +5518,25 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="6">
         <v>39</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="7">
-        <v>4</v>
-      </c>
-      <c r="D41" s="7">
+      <c r="C41" s="6">
+        <v>1</v>
+      </c>
+      <c r="D41" s="6">
         <v>9</v>
       </c>
-      <c r="E41" s="7">
-        <v>2</v>
-      </c>
-      <c r="F41" s="7">
+      <c r="E41" s="6">
+        <v>2</v>
+      </c>
+      <c r="F41" s="6">
         <v>40007</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="1">
         <v>2</v>
       </c>
       <c r="H41">
@@ -5547,25 +5544,25 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="7">
+      <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C42" s="7">
-        <v>4</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
         <v>10</v>
       </c>
-      <c r="E42" s="7">
-        <v>1</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="E42" s="6">
+        <v>1</v>
+      </c>
+      <c r="F42" s="6">
         <v>40008</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="1">
         <v>2</v>
       </c>
       <c r="H42">
@@ -5573,25 +5570,25 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="7">
+      <c r="A43" s="6">
         <v>41</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="7">
-        <v>4</v>
-      </c>
-      <c r="D43" s="7">
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
         <v>11</v>
       </c>
-      <c r="E43" s="7">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
         <v>40009</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="1">
         <v>2</v>
       </c>
       <c r="H43">
@@ -5599,25 +5596,25 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="6">
         <v>42</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="7">
-        <v>4</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="C44" s="6">
+        <v>1</v>
+      </c>
+      <c r="D44" s="6">
         <v>12</v>
       </c>
-      <c r="E44" s="7">
-        <v>2</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="E44" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6">
         <v>40010</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="1">
         <v>2</v>
       </c>
       <c r="H44">
@@ -5625,25 +5622,25 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="7">
+      <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C45" s="7">
-        <v>4</v>
-      </c>
-      <c r="D45" s="7">
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
         <v>13</v>
       </c>
-      <c r="E45" s="7">
-        <v>2</v>
-      </c>
-      <c r="F45" s="7">
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
         <v>40011</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="1">
         <v>2</v>
       </c>
       <c r="H45">
@@ -5651,25 +5648,25 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="7">
+      <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="7">
-        <v>4</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
         <v>14</v>
       </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
         <v>40012</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="1">
         <v>2</v>
       </c>
       <c r="H46">
@@ -5677,25 +5674,25 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="7">
+      <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="7">
-        <v>4</v>
-      </c>
-      <c r="D47" s="7">
+      <c r="C47" s="6">
+        <v>1</v>
+      </c>
+      <c r="D47" s="6">
         <v>15</v>
       </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7">
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
         <v>40013</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="1">
         <v>2</v>
       </c>
       <c r="H47">
@@ -5703,25 +5700,25 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="7">
+      <c r="A48" s="6">
         <v>46</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C48" s="7">
-        <v>4</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+      <c r="D48" s="6">
         <v>16</v>
       </c>
-      <c r="E48" s="7">
-        <v>2</v>
-      </c>
-      <c r="F48" s="7">
+      <c r="E48" s="6">
+        <v>2</v>
+      </c>
+      <c r="F48" s="6">
         <v>40014</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="1">
         <v>2</v>
       </c>
       <c r="H48">
@@ -5729,29 +5726,29 @@
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="7">
+      <c r="A49" s="6">
         <v>47</v>
       </c>
-      <c r="C49" s="7"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="6">
         <v>48</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C50" s="7">
-        <v>4</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7">
-        <v>1</v>
-      </c>
-      <c r="F50" s="7">
+      <c r="C50" s="6">
+        <v>1</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+      <c r="F50" s="6">
         <v>50001</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="1">
         <v>3</v>
       </c>
       <c r="H50">
@@ -5759,25 +5756,25 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="7">
+      <c r="A51" s="6">
         <v>49</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="7">
-        <v>4</v>
-      </c>
-      <c r="D51" s="7">
-        <v>1</v>
-      </c>
-      <c r="E51" s="7">
-        <v>2</v>
-      </c>
-      <c r="F51" s="7">
+      <c r="C51" s="6">
+        <v>1</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2</v>
+      </c>
+      <c r="F51" s="6">
         <v>50002</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="1">
         <v>3</v>
       </c>
       <c r="H51">
@@ -5785,23 +5782,23 @@
       </c>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="7">
+      <c r="A52" s="6">
         <v>50</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="7">
-        <v>4</v>
-      </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7">
+      <c r="C52" s="6">
+        <v>1</v>
+      </c>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6">
         <v>31</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="6">
         <v>50003</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="1">
         <v>3</v>
       </c>
       <c r="H52">
@@ -5809,23 +5806,23 @@
       </c>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="6">
         <v>51</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C53" s="7">
-        <v>4</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7">
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6">
         <v>23</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="6">
         <v>50004</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="1">
         <v>3</v>
       </c>
       <c r="H53">
@@ -5833,23 +5830,23 @@
       </c>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="7">
+      <c r="A54" s="6">
         <v>52</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="7">
-        <v>4</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7">
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6">
         <v>22</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="6">
         <v>50005</v>
       </c>
-      <c r="G54" s="4">
+      <c r="G54" s="1">
         <v>3</v>
       </c>
       <c r="H54">
@@ -5857,23 +5854,23 @@
       </c>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7">
+      <c r="A55" s="6">
         <v>53</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C55" s="7">
-        <v>4</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7">
+      <c r="C55" s="6">
+        <v>1</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6">
         <v>22</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F55" s="6">
         <v>50006</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="1">
         <v>3</v>
       </c>
       <c r="H55">
@@ -5881,23 +5878,23 @@
       </c>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="6">
         <v>54</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C56" s="7">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7">
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6">
         <v>11</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="6">
         <v>50007</v>
       </c>
-      <c r="G56" s="4">
+      <c r="G56" s="1">
         <v>3</v>
       </c>
       <c r="H56">
@@ -5905,23 +5902,23 @@
       </c>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7">
+      <c r="A57" s="6">
         <v>55</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C57" s="7">
-        <v>4</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7">
+      <c r="C57" s="6">
+        <v>1</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6">
         <v>3</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="6">
         <v>50008</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="1">
         <v>3</v>
       </c>
       <c r="H57">
@@ -5929,25 +5926,25 @@
       </c>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="7">
+      <c r="A58" s="6">
         <v>56</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C58" s="7">
-        <v>4</v>
-      </c>
-      <c r="D58" s="7">
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6">
         <v>13</v>
       </c>
-      <c r="E58" s="7">
-        <v>2</v>
-      </c>
-      <c r="F58" s="7">
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+      <c r="F58" s="6">
         <v>50009</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G58" s="1">
         <v>3</v>
       </c>
       <c r="H58">
@@ -5955,25 +5952,25 @@
       </c>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="6">
         <v>57</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="7">
-        <v>4</v>
-      </c>
-      <c r="D59" s="7">
+      <c r="C59" s="6">
+        <v>1</v>
+      </c>
+      <c r="D59" s="6">
         <v>11</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>3</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="6">
         <v>50010</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="1">
         <v>3</v>
       </c>
       <c r="H59">
@@ -5981,25 +5978,25 @@
       </c>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="7">
+      <c r="A60" s="6">
         <v>58</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
+        <v>1</v>
+      </c>
+      <c r="D60" s="6">
+        <v>22</v>
+      </c>
+      <c r="E60" s="6">
         <v>4</v>
       </c>
-      <c r="D60" s="7">
-        <v>22</v>
-      </c>
-      <c r="E60" s="7">
-        <v>4</v>
-      </c>
-      <c r="F60" s="7">
+      <c r="F60" s="6">
         <v>50011</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G60" s="1">
         <v>3</v>
       </c>
       <c r="H60">
@@ -6019,7 +6016,7 @@
   <sheetPr/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
